--- a/results/Analysis_Sensitivity/Sens.ExcludeSmoking_Association/06_LR.M1.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.ExcludeSmoking_Association/06_LR.M1.Scaled.Coef.xlsx
@@ -417,27 +417,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>Triglycerides</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.12 (-0.19, -0.04)</t>
+          <t>-0.10 (-0.15, -0.04)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.04 (-0.06, -0.01)</t>
+          <t>-0.04 (-0.06, -0.02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -452,34 +452,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.04 (-0.06, -0.01)</t>
+          <t>-0.04 (-0.06, -0.02)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-0.04 (-0.07, -0.01)</t>
+          <t>-0.04 (-0.07, -0.02)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>Total cholesterol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.13 (0.06, 0.20)</t>
+          <t>0.10 (0.05, 0.15)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.28 (-0.35, -0.20)</t>
+          <t>-0.19 (-0.25, -0.14)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.07 (-0.09, -0.04)</t>
+          <t>-0.07 (-0.09, -0.05)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-0.10 (-0.13, -0.08)</t>
+          <t>-0.10 (-0.12, -0.08)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-0.08 (-0.11, -0.05)</t>
+          <t>-0.09 (-0.11, -0.06)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.18 (0.11, 0.25)</t>
+          <t>0.09 (0.04, 0.14)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06 (0.04, 0.08)</t>
+          <t>0.04 (0.02, 0.06)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -613,27 +613,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.03 (0.02, 0.03)</t>
+          <t>0.01 (0.00, 0.02)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.07 (0.05, 0.09)</t>
+          <t>0.04 (0.02, 0.06)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.07 (0.05, 0.10)</t>
+          <t>0.05 (0.02, 0.07)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.11 (0.04, 0.18)</t>
+          <t>0.14 (0.09, 0.19)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03 (0.01, 0.06)</t>
+          <t>0.06 (0.04, 0.08)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.01 (-0.00, 0.02)</t>
+          <t>0.03 (0.02, 0.03)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.03 (0.01, 0.06)</t>
+          <t>0.07 (0.06, 0.09)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.05 (0.02, 0.08)</t>
+          <t>0.08 (0.05, 0.10)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -707,12 +707,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.04 (-0.11, 0.03)</t>
+          <t>-0.03 (-0.08, 0.03)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.299</t>
+          <t>0.365</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -722,37 +722,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.472</t>
+          <t>0.277</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.00 (-0.01, 0.00)</t>
+          <t>-0.01 (-0.01, 0.00)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.359</t>
+          <t>0.207</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-0.02 (-0.05, -0.00)</t>
+          <t>-0.02 (-0.04, -0.00)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.01 (-0.04, 0.02)</t>
+          <t>-0.01 (-0.04, 0.01)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.473</t>
+          <t>0.292</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.35 (0.29, 0.42)</t>
+          <t>0.25 (0.20, 0.30)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11 (0.09, 0.13)</t>
+          <t>0.12 (0.10, 0.14)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.03 (0.02, 0.04)</t>
+          <t>0.04 (0.03, 0.05)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.13 (0.11, 0.15)</t>
+          <t>0.13 (0.12, 0.15)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.30 (0.23, 0.38)</t>
+          <t>0.19 (0.14, 0.25)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.09 (0.06, 0.11)</t>
+          <t>0.09 (0.07, 0.11)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.09 (0.07, 0.12)</t>
+          <t>0.09 (0.07, 0.11)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.11 (0.09, 0.14)</t>
+          <t>0.10 (0.08, 0.13)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -878,22 +878,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-0.11 (-0.19, -0.04)</t>
+          <t>-0.07 (-0.13, -0.02)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.04 (-0.06, -0.01)</t>
+          <t>-0.03 (-0.06, -0.01)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-0.05 (-0.07, -0.02)</t>
+          <t>-0.04 (-0.06, -0.02)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -918,12 +918,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-0.04 (-0.07, -0.01)</t>
+          <t>-0.03 (-0.06, -0.01)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.007</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.15 (0.09, 0.21)</t>
+          <t>0.10 (0.05, 0.14)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
